--- a/Data/E4_HS.xlsx
+++ b/Data/E4_HS.xlsx
@@ -172,8 +172,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -235,8 +235,8 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -522,7 +522,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,9 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,7 +856,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
